--- a/templates/community/RPTU/RPTU_FS_PeptideMS.xlsx
+++ b/templates/community/RPTU/RPTU_FS_PeptideMS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\RPTU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\RPTU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBBAD962-1979-4CFE-8F36-7B62FA485E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F5E747-761D-4CC9-9389-96A1B1CBD62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{164F9903-EEFB-44F0-9385-C7644EC9D860}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{164F9903-EEFB-44F0-9385-C7644EC9D860}"/>
   </bookViews>
   <sheets>
     <sheet name="PeptideMS" sheetId="1" r:id="rId1"/>
@@ -51,75 +51,75 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{6F3D5E10-86E9-4C7E-A123-B4D48AD97844}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The unique identifier of this template. It will be auto generated.
-Reply:
+Antwort:
     id=429f9e81-8881-4da0-b139-d5f7ed7a0fc3</t>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{55116398-555B-40BA-B24A-2DAEAA97C647}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate template.</t>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{411CF5D5-63D9-4814-8966-0AFFFD10593D}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The current version of this template in SemVer notation.</t>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{4E9F356D-ACE2-4B37-B4BB-D374D5E23076}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The description of this template. Use few sentences for succinctness.</t>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{3545B751-8B5A-40E4-A5B0-0D75B110ED79}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{1C69E237-A238-41CA-BC9D-9B062BD5956A}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{32807D09-0158-4ABE-8B4B-C96E0D512107}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms.</t>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{A6D5C3CD-02BD-4B49-AD94-B17001CF7F0C}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all tags associated with this template. Tags are realized as Terms.</t>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{24032C30-88E6-4F4B-A074-4F0DBDA4A8BA}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The author(s) of this template.</t>
       </text>
     </comment>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="155">
   <si>
     <t>Source Name</t>
   </si>
@@ -533,12 +533,6 @@
   </si>
   <si>
     <t>RPTU - MBS</t>
-  </si>
-  <si>
-    <t>PRIDE</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/DPBO_1000098</t>
   </si>
   <si>
     <t>DPBO</t>
@@ -609,7 +603,7 @@
     <numFmt numFmtId="164" formatCode="0.00\ &quot;microliter&quot;"/>
     <numFmt numFmtId="165" formatCode="0.00\ &quot;minute&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -640,12 +634,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -861,8 +849,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="33">
     <dxf>
@@ -1028,9 +1016,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1068,7 +1056,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1174,7 +1162,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1316,7 +1304,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1392,60 +1380,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CBA6CA-B9F2-44AD-ABEB-E592783A730A}">
   <dimension ref="A1:AP24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="33" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="40" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="48" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="42.28515625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.6640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="42.33203125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="44.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="48" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="41.7109375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="64.85546875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="35.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="46.28515625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="32.7109375" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="38.5703125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="41.7109375" customWidth="1"/>
-    <col min="24" max="24" width="32.7109375" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="39.42578125" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="107.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="107.28515625" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="39.85546875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="41.6640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="64.88671875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="35.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="46.33203125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.44140625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="32.6640625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="38.5546875" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.6640625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="37.88671875" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="41.6640625" customWidth="1"/>
+    <col min="24" max="24" width="32.6640625" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="39.44140625" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="107.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="107.33203125" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="39.88671875" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="51" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="51" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="31" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.140625" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="24.42578125" hidden="1" customWidth="1"/>
-    <col min="35" max="36" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.109375" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="24.44140625" hidden="1" customWidth="1"/>
+    <col min="35" max="36" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.6640625" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="31" hidden="1" customWidth="1"/>
     <col min="40" max="40" width="0" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.6640625" hidden="1" customWidth="1"/>
     <col min="43" max="43" width="0" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="45" max="46" width="0" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1552,7 +1540,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -1659,7 +1647,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -1766,7 +1754,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -1873,7 +1861,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -1980,7 +1968,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -2087,7 +2075,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -2194,7 +2182,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -2301,7 +2289,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -2408,7 +2396,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -2515,7 +2503,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -2622,7 +2610,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -2729,7 +2717,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -2836,7 +2824,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -2943,7 +2931,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -3050,7 +3038,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -3157,7 +3145,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -3264,7 +3252,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -3371,7 +3359,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="135" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>81</v>
       </c>
@@ -3399,7 +3387,7 @@
       <c r="W21" s="8"/>
       <c r="X21" s="8"/>
     </row>
-    <row r="22" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>82</v>
       </c>
@@ -3494,7 +3482,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>95</v>
       </c>
@@ -3533,7 +3521,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="M24" t="s">
         <v>98</v>
       </c>
@@ -3550,15 +3538,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86939E65-5FAB-49A4-86F4-6A1F19DC8DDD}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>105</v>
       </c>
@@ -3566,15 +3556,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>106</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>107</v>
       </c>
@@ -3582,15 +3572,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>108</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>109</v>
       </c>
@@ -3598,189 +3588,183 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>110</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>111</v>
       </c>
       <c r="B7" s="19"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="18"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="18"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>115</v>
       </c>
       <c r="B11" s="19"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>116</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>118</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>119</v>
       </c>
       <c r="B15" s="19"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>120</v>
       </c>
       <c r="B16" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" t="s">
         <v>143</v>
       </c>
-      <c r="C16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>121</v>
       </c>
       <c r="B17" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" t="s">
         <v>146</v>
       </c>
-      <c r="C17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>122</v>
       </c>
       <c r="B18" s="18"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>123</v>
       </c>
       <c r="B19" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>124</v>
       </c>
       <c r="B20" s="18"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>125</v>
       </c>
       <c r="B21" s="18"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>126</v>
       </c>
       <c r="B22" s="18"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>127</v>
       </c>
       <c r="B23" s="18"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>128</v>
       </c>
       <c r="B24" s="18"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>129</v>
       </c>
       <c r="B25" s="18"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>130</v>
       </c>
       <c r="B26" s="18"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>131</v>
       </c>

--- a/templates/community/RPTU/RPTU_FS_PeptideMS.xlsx
+++ b/templates/community/RPTU/RPTU_FS_PeptideMS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\RPTU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F5E747-761D-4CC9-9389-96A1B1CBD62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47855529-6754-4848-B3CC-C9E488628FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{164F9903-EEFB-44F0-9385-C7644EC9D860}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{164F9903-EEFB-44F0-9385-C7644EC9D860}"/>
   </bookViews>
   <sheets>
     <sheet name="PeptideMS" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="154">
   <si>
     <t>Source Name</t>
   </si>
@@ -535,9 +535,6 @@
     <t>RPTU - MBS</t>
   </si>
   <si>
-    <t>DPBO</t>
-  </si>
-  <si>
     <t>Algae</t>
   </si>
   <si>
@@ -586,13 +583,13 @@
     <t>Template for the mass spectrometry assay of the mass spectrometry facility at the department of Molecular Biotechnology &amp; Systems Biology at RPTU Kaiserslautern</t>
   </si>
   <si>
-    <t>assay protocol</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/DPBO_1000177</t>
-  </si>
-  <si>
     <t>annotationTableSlimyRobin47</t>
+  </si>
+  <si>
+    <t>assay</t>
+  </si>
+  <si>
+    <t>OBI:0000070</t>
   </si>
 </sst>
 </file>
@@ -3539,7 +3536,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3561,7 +3558,7 @@
         <v>106</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3577,7 +3574,7 @@
         <v>108</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -3593,7 +3590,7 @@
         <v>110</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -3631,13 +3628,13 @@
         <v>116</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" t="s">
         <v>152</v>
       </c>
       <c r="D12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -3645,13 +3642,13 @@
         <v>117</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
         <v>153</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -3659,13 +3656,10 @@
         <v>118</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -3679,13 +3673,13 @@
         <v>120</v>
       </c>
       <c r="B16" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" t="s">
         <v>141</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>142</v>
-      </c>
-      <c r="D16" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -3693,13 +3687,13 @@
         <v>121</v>
       </c>
       <c r="B17" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" t="s">
         <v>144</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>145</v>
-      </c>
-      <c r="D17" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -3713,13 +3707,13 @@
         <v>123</v>
       </c>
       <c r="B19" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="D19" s="23" t="s">
         <v>148</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">

--- a/templates/community/RPTU/RPTU_FS_PeptideMS.xlsx
+++ b/templates/community/RPTU/RPTU_FS_PeptideMS.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\RPTU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47855529-6754-4848-B3CC-C9E488628FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313E6697-1BD2-4301-85C8-CDD75BD5468F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{164F9903-EEFB-44F0-9385-C7644EC9D860}"/>
   </bookViews>
   <sheets>
     <sheet name="PeptideMS" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
